--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GenerativeAI_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E75C0182-09F7-4D80-AB38-E9B9315EEBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5DA091-8BCD-4C04-A510-33307C255894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C86C071B-CAC4-4F7E-9EF2-53A986705972}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Topic = AI</t>
   </si>
@@ -81,6 +82,12 @@
   </si>
   <si>
     <t>Final Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Output1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Output 2</t>
   </si>
 </sst>
 </file>
@@ -179,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -218,6 +225,859 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B58BD23-4C3C-4050-BF12-C182C32BF063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4000500" y="942975"/>
+          <a:ext cx="750570" cy="201930"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>436245</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>268605</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F62602D-EC85-4C95-94C8-5604136B35F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5012055" y="958215"/>
+          <a:ext cx="457200" cy="165735"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>321945</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>321945</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000C6A3A-0FA3-478E-A4D6-FC33EC561167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3983355" y="1335405"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FCE2E8E-612F-46F2-AD2F-109B7579385B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5577840" y="1343025"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6E0825-FBD8-4BA2-B2C0-7C809F00BF26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="2295525"/>
+          <a:ext cx="0" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78EC3B74-6304-4612-BDE8-29611F9D32B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5593080" y="2272665"/>
+          <a:ext cx="0" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D6CEA3-6DC8-4AC9-A4FB-DCE148C58644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4015740" y="3246120"/>
+          <a:ext cx="11430" cy="293370"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>407670</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC659B3D-1BB8-402B-9749-4634BAE3D424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5606415" y="3246120"/>
+          <a:ext cx="13335" cy="293370"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>348615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>348615</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0AB742-2825-4C68-BDB4-612EEE759456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8667750" y="1864995"/>
+          <a:ext cx="220980" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64037F8C-156A-4AE5-83CE-684679F5F6B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9713595" y="1906905"/>
+          <a:ext cx="217170" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BF4644-16CB-4E15-9DEA-4A118A4EC436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="1906905"/>
+          <a:ext cx="211455" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>369570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72779F42-5718-4864-A743-30B3CF49BE6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11641455" y="1504950"/>
+          <a:ext cx="283845" cy="741045"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62593203-D625-4D0A-BDB1-E3F09590F8EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12574905" y="1906905"/>
+          <a:ext cx="213360" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3BD4F3-5C70-4B5E-84C9-05505529A336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13546455" y="1884045"/>
+          <a:ext cx="213360" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088D78A8-F600-4B01-9460-12580A629FE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14546580" y="1884045"/>
+          <a:ext cx="200025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF728026-2F06-4C09-9382-FA1F74562DFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11616690" y="2257425"/>
+          <a:ext cx="1242060" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1333,10 +2193,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F415BC7-3E8F-4F0E-B45C-235BD6C4D23B}">
+  <dimension ref="G1:AA15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="4" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="7:27" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="7:27" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="W9" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="7:27" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="7:27" x14ac:dyDescent="0.3">
+      <c r="G13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="7:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB86392-2CB1-4DAB-91BF-516A8D6AFD10}">
   <dimension ref="G1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GenerativeAI_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5DA091-8BCD-4C04-A510-33307C255894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE35157-FD93-4A03-BDC4-CD409B139939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C86C071B-CAC4-4F7E-9EF2-53A986705972}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C86C071B-CAC4-4F7E-9EF2-53A986705972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>Topic = AI</t>
   </si>
@@ -88,6 +89,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Output 2</t>
+  </si>
+  <si>
+    <t>Runnable Lambda to Count words in the joke</t>
+  </si>
+  <si>
+    <t>Output 1: Number of Words</t>
   </si>
 </sst>
 </file>
@@ -1078,6 +1085,329 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>348615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>348615</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A0FB64-61C5-4358-A2FA-6F8462F9A9DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8667750" y="2226945"/>
+          <a:ext cx="220980" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D319F5DE-FA07-4F26-9E84-C6FFDAFE234E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9713595" y="2268855"/>
+          <a:ext cx="217170" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B20C03-07BE-49CA-BD3F-206225E3A591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="2268855"/>
+          <a:ext cx="211455" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>369570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790B60DE-CD34-412D-8A8F-095848759BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11645265" y="1503045"/>
+          <a:ext cx="281940" cy="741045"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318A3883-B9B2-4D16-9BCD-0E26F366E48D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7974330" y="1114425"/>
+          <a:ext cx="541020" cy="11430"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58220FCF-F251-4B60-90DB-D81C3324E286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11612880" y="2257425"/>
+          <a:ext cx="1247775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2196,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F415BC7-3E8F-4F0E-B45C-235BD6C4D23B}">
   <dimension ref="G1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2308,6 +2638,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9A8811-93BA-46EA-8A33-ED43712861DE}">
+  <dimension ref="E4:O7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="5:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="5:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="O7" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB86392-2CB1-4DAB-91BF-516A8D6AFD10}">
   <dimension ref="G1:AA15"/>
   <sheetViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GenerativeAI_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE35157-FD93-4A03-BDC4-CD409B139939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE10C9F-FE08-4EA6-9317-614113DFD2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C86C071B-CAC4-4F7E-9EF2-53A986705972}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{C86C071B-CAC4-4F7E-9EF2-53A986705972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Topic = AI</t>
   </si>
@@ -95,6 +98,51 @@
   </si>
   <si>
     <t>Output 1: Number of Words</t>
+  </si>
+  <si>
+    <t>Email from Customer</t>
+  </si>
+  <si>
+    <t>If Email is for complain</t>
+  </si>
+  <si>
+    <t>Route to Customer Service to handle the complain</t>
+  </si>
+  <si>
+    <t>If Email is for General Query</t>
+  </si>
+  <si>
+    <t>If Email is for the  Refund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Route to AI BOT to respond to General query </t>
+  </si>
+  <si>
+    <t>Route to Database which can be used to verify the paid amount and  generate appropriate refund</t>
+  </si>
+  <si>
+    <t>LLM used to analyze the nature of request mentioned in the Email</t>
+  </si>
+  <si>
+    <t>Prompt</t>
+  </si>
+  <si>
+    <t>LLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runnable </t>
+  </si>
+  <si>
+    <t>Runnable  Branch</t>
+  </si>
+  <si>
+    <t>LLM to handle the Complain</t>
+  </si>
+  <si>
+    <t>LLM to handle the Refund</t>
+  </si>
+  <si>
+    <t>LLM to handle General Query</t>
   </si>
 </sst>
 </file>
@@ -182,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +262,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2179,6 +2237,758 @@
         <a:xfrm>
           <a:off x="14544675" y="1885950"/>
           <a:ext cx="205740" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>272415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>272415</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10936DF2-FC28-4117-6DFD-A326F82D5885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3869055" y="1939290"/>
+          <a:ext cx="386715" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1082040</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9531126D-8943-491F-AFDB-54A854268AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5568315" y="695325"/>
+          <a:ext cx="870585" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7CE9EB-90AD-4644-9D99-B623CFD81E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5638800" y="1990725"/>
+          <a:ext cx="826770" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94802A9E-DBA6-4C9F-ADDD-E561B2513C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="1914525"/>
+          <a:ext cx="857250" cy="748665"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>455295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674370</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>472440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7010DA7-45B2-4D56-95AE-0C1EF25223A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7301865" y="826770"/>
+          <a:ext cx="592455" cy="17145"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>544830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>630555</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>550545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C9F025-8AC8-4B22-A10B-E90C72B4343E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7284720" y="2211705"/>
+          <a:ext cx="565785" cy="5715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF5285C-AF9D-4350-8B36-E0D1D6E4B5D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7269480" y="2647950"/>
+          <a:ext cx="626745" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>331470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868C450C-A915-4F92-BEC9-A2A1C4FC39A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="1636395"/>
+          <a:ext cx="514350" cy="1905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>331470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44DC1EAB-C60F-40B8-B739-2B71121EAAA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="1636395"/>
+          <a:ext cx="495300" cy="1905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C4D301-D99C-4DDE-907B-F9E3D6E4133A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6187440" y="1628775"/>
+          <a:ext cx="499110" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6CD719-A4BE-444B-8435-F3E2352977B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7334250" y="805815"/>
+          <a:ext cx="541020" cy="765810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>340995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{737A79CC-B659-4D4B-85B8-B365968796AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7341870" y="1645920"/>
+          <a:ext cx="592455" cy="11430"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4E2870-AF04-478E-94C3-04CAA6981BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7341870" y="1876425"/>
+          <a:ext cx="544830" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>340995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808A0466-0B2E-40BD-B6FD-8197172B6B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7339965" y="1645920"/>
+          <a:ext cx="596265" cy="13335"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2641,7 +3451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9A8811-93BA-46EA-8A33-ED43712861DE}">
   <dimension ref="E4:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -2794,4 +3604,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6150B35-FAA5-401D-AF28-C13683ECEBDC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA7123B-A8CD-40F2-B869-1FD2357998D5}">
+  <dimension ref="E2:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="5:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="5:11" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="5:11" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA521B9F-3D5C-4432-B092-1720F091F179}">
+  <dimension ref="F2:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="6:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="6:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="6:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="6:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GenerativeAI_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE10C9F-FE08-4EA6-9317-614113DFD2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC4DA3F-F5C5-4A96-8FC4-2B02ED7CCCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{C86C071B-CAC4-4F7E-9EF2-53A986705972}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Topic = AI</t>
   </si>
@@ -144,14 +145,45 @@
   <si>
     <t>LLM to handle General Query</t>
   </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>Retriever</t>
+  </si>
+  <si>
+    <t>User Query</t>
+  </si>
+  <si>
+    <t>Document 1</t>
+  </si>
+  <si>
+    <t>Document n</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Document 2</t>
+  </si>
+  <si>
+    <t>Response to User Query</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -230,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,12 +297,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2642,6 +2683,543 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>621030</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DEA8528-AE8A-7934-C3AD-8FBCB86DEB49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5269230" y="1905000"/>
+          <a:ext cx="893445" cy="649605"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C290333-681D-079A-B42C-3D330F11A564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9304020" y="1009650"/>
+          <a:ext cx="2697480" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73BDF7B0-FD0B-34A0-8546-297AA02D135D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10496550" y="1485900"/>
+          <a:ext cx="1152525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>302895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1158240</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72A08B1-21DE-F6D6-56D9-2F64C9B98C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11704320" y="1598295"/>
+          <a:ext cx="1102995" cy="1083945"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1131570</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA2DA4A-8F34-B4E2-1EC4-FBC02901A018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6962775" y="1383030"/>
+          <a:ext cx="3436620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>281940</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07FF975-6B2E-9A5D-16AF-BB0C9B938933}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6972300" y="1571625"/>
+          <a:ext cx="3400425" cy="5715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BD15AB-2BAB-FAE7-BEE1-C7D3BFA1DB7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7218045" y="586741"/>
+          <a:ext cx="3011805" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1300">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retriever searches Data sources to find Relevant Documents for the user query</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>344806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>775334</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB06C55-57F2-4F4B-B351-D2499920ED76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296150" y="1640206"/>
+          <a:ext cx="2747009" cy="598170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1300">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Documents retrieved from Data Source is provided as Response</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1300" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> to User query</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1300">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F387814-B630-A5BE-BE13-D7D062BEC28C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="1876425"/>
+          <a:ext cx="638175" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3498,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB86392-2CB1-4DAB-91BF-516A8D6AFD10}">
   <dimension ref="G1:AA15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3568,7 +4146,7 @@
       </c>
       <c r="V9" s="8"/>
       <c r="W9" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="10" t="s">
@@ -3629,7 +4207,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="10" width="10.88671875" customWidth="1"/>
@@ -3638,7 +4216,7 @@
   <sheetData>
     <row r="2" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="12"/>
@@ -3652,14 +4230,14 @@
         <v>19</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3694,10 +4272,89 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E973D2-BB7A-4FEC-A20E-0017AA1EE31C}">
+  <dimension ref="H5:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="8:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="8:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O6" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="8:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="8:15" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="O10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="O11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="8:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="8:15" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA521B9F-3D5C-4432-B092-1720F091F179}">
   <dimension ref="F2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -3717,7 +4374,6 @@
       <c r="F5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="13"/>
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GenerativeAI_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC4DA3F-F5C5-4A96-8FC4-2B02ED7CCCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507533F-BBFA-4868-A64E-5E902CBE3F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{C86C071B-CAC4-4F7E-9EF2-53A986705972}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{C86C071B-CAC4-4F7E-9EF2-53A986705972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>Topic = AI</t>
   </si>
@@ -168,13 +169,293 @@
   </si>
   <si>
     <t>Response to User Query</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LLM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It will generate Multiple queries from single Query</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+How can I stay healthy ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  What daily routine support long-term health?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Query 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How can I boost my immune system naturally?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Query 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What Lifestyle habits to improve for mental and physical wellness?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> How often should I exercise to stay fit?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> What are the Best foods to maintain health?</t>
+    </r>
+  </si>
+  <si>
+    <t>Multiple diverse queries generated from single query asked by the user</t>
+  </si>
+  <si>
+    <t>Retriever 1</t>
+  </si>
+  <si>
+    <t>Retriever 2</t>
+  </si>
+  <si>
+    <t>Retriever 3</t>
+  </si>
+  <si>
+    <t>Retriever 4</t>
+  </si>
+  <si>
+    <t>Retriever 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Document Output 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from Retriever 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Document Output5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from Retriever 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Document Output 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from Retriever 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Document Output 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from Retriever 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Document Output 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from Retriever 1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +470,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,7 +493,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -258,11 +553,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,11 +639,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3567,6 +3916,859 @@
         <a:xfrm>
           <a:off x="7339965" y="1645920"/>
           <a:ext cx="596265" cy="13335"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4FA3F3-460D-2A3B-781F-0085D9E78878}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="1809750"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10187</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>105768</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D860351-DD3D-4CB9-B753-FA559020DF67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4797535" y="985630"/>
+          <a:ext cx="619291" cy="611008"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1316935</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92E32BD-41F5-4663-AA2C-7B26EC57C6B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4787348" y="1383196"/>
+          <a:ext cx="1316935" cy="351680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12092</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>236386</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6B5E0E-5381-4B5F-ABFE-72456354FAEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4799440" y="1822175"/>
+          <a:ext cx="1316935" cy="95581"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10187</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1300369</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35167344-18DA-493D-8FC6-999511B1509C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4797535" y="2054087"/>
+          <a:ext cx="1290182" cy="231913"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1302274</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95581</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483A6017-9C6A-41E2-B426-53246D137E7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4803913" y="2211457"/>
+          <a:ext cx="1285709" cy="509711"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14660</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>240195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596349</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>250383</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5035E3EC-FC05-4DFB-B2C7-08578A0151BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8280703" y="1159565"/>
+          <a:ext cx="581689" cy="10188"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12755</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>275231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>575973</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>277136</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06CB444E-CFF6-488A-88E0-89273EE90240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8278798" y="1940035"/>
+          <a:ext cx="563218" cy="1905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26752</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>240195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19132</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>254856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19579ACB-9146-4373-846A-21A4969F5096}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8292795" y="2650434"/>
+          <a:ext cx="605294" cy="14661"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>230008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596347</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>240195</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42607E60-1B0E-4F28-B43D-0FFA7E04F203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8297268" y="3385682"/>
+          <a:ext cx="565122" cy="10187"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15902</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>210875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>210958</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1095109D-904D-40A2-BBBA-884103D6B42B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8281945" y="4111984"/>
+          <a:ext cx="597012" cy="83"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>240196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3811</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>252289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2494138-1D8F-49A5-9980-874BC4D37EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9616108" y="1159566"/>
+          <a:ext cx="583594" cy="12093"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>18470</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>319212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596349</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>335115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8CF911-AD2C-4864-9778-C0006286C947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9601448" y="1984016"/>
+          <a:ext cx="577879" cy="15903"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>240196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591877</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>252289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B91362-5580-41C9-9A7F-1DB5F405678E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9591261" y="2650435"/>
+          <a:ext cx="583594" cy="12093"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>281609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1326</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>281692</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5972D6E0-6B47-4BDC-B8EB-6669083EA358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9607825" y="4182718"/>
+          <a:ext cx="589392" cy="83"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>256761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596349</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>263139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E11171-ED61-4AE9-AFC0-E4752917256D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9599543" y="3412435"/>
+          <a:ext cx="579784" cy="6378"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4275,7 +5477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E973D2-BB7A-4FEC-A20E-0017AA1EE31C}">
   <dimension ref="H5:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -4403,4 +5605,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CE984F-DAC3-42A7-88B5-CF2330B8F959}">
+  <dimension ref="D5:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="49.77734375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="4:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="19"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="4:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="19"/>
+      <c r="H8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="19"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="4:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="H10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="1"/>
+      <c r="F11" s="19"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="4:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="19"/>
+      <c r="H12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="19"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="4:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="20"/>
+      <c r="H14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F6:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GenerativeAI_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507533F-BBFA-4868-A64E-5E902CBE3F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CAEF1E-2CE8-4AF0-BAC1-5726E5F921C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{C86C071B-CAC4-4F7E-9EF2-53A986705972}"/>
   </bookViews>
@@ -20,7 +20,8 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet7 (2)" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>Topic = AI</t>
   </si>
@@ -171,161 +172,6 @@
     <t>Response to User Query</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">LLM
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>It will generate Multiple queries from single Query</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Query</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-How can I stay healthy ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Query 5:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  What daily routine support long-term health?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Query 4: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>How can I boost my immune system naturally?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Query 3: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>What Lifestyle habits to improve for mental and physical wellness?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Query 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How often should I exercise to stay fit?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Query 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What are the Best foods to maintain health?</t>
-    </r>
-  </si>
-  <si>
-    <t>Multiple diverse queries generated from single query asked by the user</t>
-  </si>
-  <si>
     <t>Retriever 1</t>
   </si>
   <si>
@@ -450,12 +296,358 @@
       <t xml:space="preserve"> from Retriever 1</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> What are the Best foods to maintain health?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> How often should I exercise to stay fit?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What Lifestyle habits to improve for mental and physical wellness?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How can I boost my immune system naturally?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  What daily routine support long-term health?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LLM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It will generate Multiple queries from single Query</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                 Query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+How can I stay healthy ?</t>
+    </r>
+  </si>
+  <si>
+    <t>Consolidate all output results and remove any duplicate</t>
+  </si>
+  <si>
+    <t>Give top K unique results</t>
+  </si>
+  <si>
+    <t>Multiple diverse queries generated from single query asked by the user.    Each query is send to single retriever</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Document Output 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Document Output 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                LLM1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It trim/compress   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Document1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and keep  relevant and appropriate response in the document</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                LLM2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It trim/compress   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Document2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and keep  relevant and appropriate response in the document</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Final Document Output 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Final Document Output 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retriever </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +657,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -493,7 +693,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -590,11 +790,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,6 +854,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -654,13 +886,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3950,6 +4198,435 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92349A9A-AC01-430D-B27B-3F0DF361E529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3230880" y="2529840"/>
+          <a:ext cx="285750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>240195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19132</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>254856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943F1B41-529E-4C00-89B7-46BA9226321A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8273497" y="2644305"/>
+          <a:ext cx="600075" cy="7041"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12093</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>368906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>592538</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>211538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42542A99-4F67-47F7-AA85-4A3504EF5026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4244506" y="1669276"/>
+          <a:ext cx="580445" cy="588066"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>693171</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>284177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>281608</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54447FF9-13C6-4A93-925B-AD234DB2BE5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221562" y="2329981"/>
+          <a:ext cx="632047" cy="560649"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>861391</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>314077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428791</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>314077</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D159F4D-E3BA-4830-AD1B-1FEA0D3ACAD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5706717" y="1597881"/>
+          <a:ext cx="437074" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>227441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10188</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>227441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5A4EF6-2991-4D42-A648-348724437835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5760223" y="2637680"/>
+          <a:ext cx="437074" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1576263</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>170705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>415456</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>170705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080B6A53-CC1F-4DA5-BDC4-AF682B369D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7738524" y="1462792"/>
+          <a:ext cx="429454" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>306457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>435832</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>306457</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C48DD0-93C3-48F6-9543-42AC0234C080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7760805" y="2907196"/>
+          <a:ext cx="427549" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
@@ -4769,6 +5446,324 @@
         <a:xfrm flipV="1">
           <a:off x="9599543" y="3412435"/>
           <a:ext cx="579784" cy="6378"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>347208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4473</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAC994F-9A76-48B8-B187-39E7581F4871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11073848" y="1266578"/>
+          <a:ext cx="435168" cy="961444"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>857581</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>283514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>423075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83489</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2949ED6F-52CA-4DBC-B966-155B0A74044A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11053472" y="1948318"/>
+          <a:ext cx="435168" cy="354910"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>422413</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>240196</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C715FB92-2762-400C-9487-5FFF37E39F81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11098696" y="2311510"/>
+          <a:ext cx="389282" cy="338925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414131</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0334107-CF4C-40EF-9640-68F0966BD0BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11085940" y="2476500"/>
+          <a:ext cx="393756" cy="877294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10188</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>339587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>405848</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>287324</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACB7EBF-704A-49AA-BA91-E4D306D5FD2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11075753" y="2749826"/>
+          <a:ext cx="395660" cy="1438607"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>94919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>440884</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>97486</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C402607C-B5F2-40AB-8A65-52955A4B4831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12274826" y="2314658"/>
+          <a:ext cx="440884" cy="2567"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5608,11 +6603,116 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF11ECAE-4FDA-4C8A-A0C4-03B334AB865F}">
+  <dimension ref="D4:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="4:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6"/>
+      <c r="J6" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="4:12" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="31"/>
+      <c r="H8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="1"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="4:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="31"/>
+      <c r="H11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F12" s="31"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="4:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="21"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J11:J13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CE984F-DAC3-42A7-88B5-CF2330B8F959}">
-  <dimension ref="D5:L17"/>
+  <dimension ref="D5:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5623,106 +6723,125 @@
     <col min="8" max="8" width="49.77734375" style="12" customWidth="1"/>
     <col min="10" max="10" width="10.21875" style="22" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="4:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="4:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>50</v>
-      </c>
       <c r="L6" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="19"/>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="4:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:16" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="19"/>
       <c r="H8" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="9" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="19"/>
       <c r="J9" s="23"/>
+      <c r="N9" s="28"/>
+      <c r="P9" s="28"/>
     </row>
-    <row r="10" spans="4:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F10" s="19"/>
       <c r="H10" s="11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="N10" s="29"/>
+      <c r="P10" s="29"/>
     </row>
-    <row r="11" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
       <c r="F11" s="19"/>
       <c r="J11" s="23"/>
+      <c r="N11" s="26"/>
     </row>
-    <row r="12" spans="4:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="19"/>
       <c r="H12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>53</v>
-      </c>
       <c r="L12" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="19"/>
       <c r="J13" s="23"/>
+      <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="4:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F14" s="20"/>
       <c r="H14" s="11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:16" x14ac:dyDescent="0.3">
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H17" s="24" t="s">
-        <v>49</v>
+    <row r="17" spans="8:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="J17" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="P8:P10"/>
     <mergeCell ref="F6:F14"/>
+    <mergeCell ref="N8:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
